--- a/documents/тесты/OpimizationTest.xlsx
+++ b/documents/тесты/OpimizationTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git repositories\HypernetTest\documents\тесты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4295E246-F8B6-4168-8ED5-AE0653BDCB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4B7FA-02BD-4F71-9747-5423D3D33352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Hypernet(9, 3, 1)</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Hypernet(25, 25, 10)</t>
   </si>
   <si>
-    <t>MAX_MENC_VALUE</t>
-  </si>
-  <si>
     <t>Hypernet(30, 33, 33)</t>
   </si>
   <si>
@@ -64,6 +62,18 @@
   </si>
   <si>
     <t>Hypernet(12, 7, 5)</t>
+  </si>
+  <si>
+    <t>Hypernet(53, 45, 36)</t>
+  </si>
+  <si>
+    <t>Hypernet(60, 57, 160)</t>
+  </si>
+  <si>
+    <t>Hypernet(53, 60, 58)</t>
+  </si>
+  <si>
+    <t>OPT_MENC_VALUE</t>
   </si>
 </sst>
 </file>
@@ -396,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="6" width="26.28515625" customWidth="1"/>
@@ -422,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -439,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>1.8</v>
@@ -453,7 +463,7 @@
       <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>0.04</v>
       </c>
     </row>
@@ -462,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>2.6</v>
@@ -476,7 +486,7 @@
       <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1.5189999999999999</v>
       </c>
     </row>
@@ -485,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>4.54887</v>
@@ -497,12 +507,73 @@
       <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>48.283000000000001</v>
       </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51BCA7-3BCA-4617-B2C6-0BFC40BB59EE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>57.807000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11.595599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>